--- a/StudentData/Assessments/Unit5/5.1.3/brewed_perfection.xlsx
+++ b/StudentData/Assessments/Unit5/5.1.3/brewed_perfection.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://strategicedinc.sharepoint.com/sites/SophiaAcademicsCD/PW/Business Data Analytics/Assessments/Assessment Data/Unit 4/4.1.3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://strategicedinc-my.sharepoint.com/personal/melissa_estremera_sophia_org/Documents/Documents/BDA/BDA_Excel/StudentData/Assessments/Unit5/5.1.3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DF465E5-10DA-4F48-95C0-6714874F7448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{2DF465E5-10DA-4F48-95C0-6714874F7448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D690ACBA-72B4-478D-937B-6BFDD8AB102B}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7F62FD47-D2CD-4277-A3A9-BC7B76B36073}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" xr2:uid="{7F62FD47-D2CD-4277-A3A9-BC7B76B36073}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,17 +41,17 @@
     <t>Week</t>
   </si>
   <si>
-    <t xml:space="preserve">Loyalty_Check-ins </t>
+    <t xml:space="preserve">Weekly_Revenue </t>
   </si>
   <si>
-    <t xml:space="preserve">Weekly_Revenue </t>
+    <t xml:space="preserve">Loyalty_Checkins </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -436,23 +436,23 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="43.5">
+    <row r="1" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -463,7 +463,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -474,7 +474,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -485,7 +485,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -496,7 +496,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -507,7 +507,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -518,7 +518,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -529,7 +529,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -540,7 +540,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -551,7 +551,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -562,7 +562,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -573,7 +573,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -584,7 +584,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -595,7 +595,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -606,7 +606,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -623,15 +623,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DD084E42E705654B9CF1FB4D1B6F86C3" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="537e09eec9479df6b3b9277a829eeea6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cb71b97d-9a65-4f5a-80e4-73af0d9029ad" xmlns:ns3="c7bf0040-ac83-4da7-b072-3c1b65a214b3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="954325e78edeaac226e03e3e0adada46" ns2:_="" ns3:_="">
     <xsd:import namespace="cb71b97d-9a65-4f5a-80e4-73af0d9029ad"/>
@@ -895,6 +886,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -910,13 +910,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC8011EB-1579-4FDB-96C0-06599920D21C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BFAD8E7-1D22-4C07-A155-2D754A897FEF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="cb71b97d-9a65-4f5a-80e4-73af0d9029ad"/>
+    <ds:schemaRef ds:uri="c7bf0040-ac83-4da7-b072-3c1b65a214b3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BFAD8E7-1D22-4C07-A155-2D754A897FEF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC8011EB-1579-4FDB-96C0-06599920D21C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3337493B-EC3C-429B-90B2-0A76DC9185D5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3337493B-EC3C-429B-90B2-0A76DC9185D5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cb71b97d-9a65-4f5a-80e4-73af0d9029ad"/>
+    <ds:schemaRef ds:uri="c7bf0040-ac83-4da7-b072-3c1b65a214b3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>